--- a/CarWashingSrvcs.xlsx
+++ b/CarWashingSrvcs.xlsx
@@ -28,13 +28,13 @@
     <t>Zion Car Care</t>
   </si>
   <si>
-    <t>07947140131</t>
+    <t>07947435256</t>
   </si>
   <si>
     <t>Vasu Motors</t>
   </si>
   <si>
-    <t>07947416670</t>
+    <t>07947435625</t>
   </si>
   <si>
     <t>5k Car Care</t>
@@ -46,13 +46,13 @@
     <t>F1 Car Wash And Detailing</t>
   </si>
   <si>
-    <t>07947139847</t>
+    <t>07947435318</t>
   </si>
   <si>
     <t>Chennai Car Care</t>
   </si>
   <si>
-    <t>07947140043</t>
+    <t>07947435974</t>
   </si>
   <si>
     <t>Gym Sub-Menu Items</t>
